--- a/USHE_Automation/src/testData/Result.xlsx
+++ b/USHE_Automation/src/testData/Result.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>TestCaseName</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t>TitleToVideo_Action</t>
+  </si>
+  <si>
+    <t>FavouriteTitle_Action</t>
+  </si>
+  <si>
+    <t>RecentVideoTitles_Action</t>
   </si>
 </sst>
 </file>
@@ -485,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -644,6 +650,24 @@
         <v>5</v>
       </c>
       <c r="C15"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.5"/>
